--- a/BalanceSheet/FCX_bal.xlsx
+++ b/BalanceSheet/FCX_bal.xlsx
@@ -5110,7 +5110,7 @@
         <v>8359000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>7954000000.0</v>
+        <v>7806000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>7672000000.0</v>
@@ -5237,7 +5237,7 @@
         <v>10074000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>10074000000.0</v>
+        <v>9826000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>9919000000.0</v>
